--- a/Dataset/Folds/Fold_4/Excel/82.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/82.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="521">
   <si>
     <t>Doi</t>
   </si>
@@ -1575,6 +1575,200 @@
   </si>
   <si>
     <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                        Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                        Federico%Marchetti%federico.marchetti@auslromagna.it%1,                        Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                        Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                        Marta%Romanengo%marta.romanengo@gmail.com%0,                        Enrico%Felici%enrico.felici@ospedale.al.it%1,                        Antonio%Urbino%afurbino@icloud.com%1,                        Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                        Lucio%Verdoni%lverdoni@asst-pg23.it%1,                        Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                        Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                        Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                        Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                        Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                        Marco%Binotti%marco.binotti@med.uniupo.it%1,                        Paolo%Biban%paolo.biban@aovr.veneto.it%1,                        Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                        Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                        Flavia%Nicoloso%flavianicoloso@gmail.com%1,                        Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                        Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                        Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                        Massimo%Chiossi%max.chiossi@gmail.com%1,                        Rino%Agostiniani%rinoagostiniani@gmail.com%1,                        Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                        Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                        Marcello%Lanari%marcello.lanari@unibo.it%1,                        Serena%Arrigo%arrigoserena@gmail.com%1,                        Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                        Matteo%Lenge%matteo.lenge@meyer.it%1,                        Stefano%Masi%stefano.masi@meyer.it%1,                        Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                        Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                        NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                         Jianbo%Shao%xzhuge27@163.com%2,                         Yu%Guo%NULL%4,                         Yu%Guo%NULL%0,                         Xuehua%Peng%NULL%4,                         Xuehua%Peng%NULL%0,                         Zhen%Li%NULL%2,                         Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                         Jianbo%Shao%xzhuge27@163.com%0,                         Yu%Guo%NULL%0,                         Yu%Guo%NULL%0,                         Xuehua%Peng%NULL%0,                         Xuehua%Peng%NULL%0,                         Zhen%Li%NULL%0,                         Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                         Rose S%Penfold%NULL%1,                         Jordi%Merino%NULL%1,                         Carole H%Sudre%NULL%1,                         Erika%Molteni%NULL%1,                         Sarah%Berry%NULL%1,                         Liane S%Canas%NULL%1,                         Mark S%Graham%NULL%1,                         Kerstin%Klaser%NULL%1,                         Marc%Modat%NULL%1,                         Benjamin%Murray%NULL%1,                         Eric%Kerfoot%NULL%1,                         Liyuan%Chen%NULL%1,                         Jie%Deng%NULL%1,                         Marc F%Österdahl%NULL%1,                         Nathan J%Cheetham%NULL%1,                         David A%Drew%NULL%1,                         Long H%Nguyen%NULL%1,                         Joan Capdevila%Pujol%NULL%1,                         Christina%Hu%NULL%1,                         Somesh%Selvachandran%NULL%1,                         Lorenzo%Polidori%NULL%1,                         Anna%May%NULL%1,                         Jonathan%Wolf%NULL%1,                         Andrew T%Chan%NULL%1,                         Alexander%Hammers%NULL%1,                         Emma L%Duncan%NULL%1,                         Tim D%Spector%NULL%1,                         Sebastien%Ourselin%NULL%1,                         Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                         Wei%Guo%NULL%1,                         Ting%Guo%NULL%1,                         Jinhua%Li%NULL%1,                         Wenlong%He%NULL%1,                         Shanshan%Ni%NULL%1,                         Xiaoli%Ouyang%NULL%1,                         Jiyang%Liu%NULL%1,                         Yuanlin%Xie%NULL%1,                         Xin%Tan%NULL%1,                         Zhiguo%Zhou%13807311490@163.com%1,                         Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                         Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                         Xiayang%Jiang%NULL%1,                         Zhenling%Zhang%NULL%1,                         Siwen%Huang%NULL%1,                         Zhenyi%Zhang%NULL%1,                         Zhaoxiong%Fang%NULL%1,                         Zhiqiang%Gu%NULL%1,                         Liangqing%Gao%NULL%1,                         Honggang%Shi%NULL%1,                         Lei%Mai%NULL%1,                         Yuan%Liu%NULL%1,                         Xianqi%Lin%NULL%1,                         Renxu%Lai%NULL%1,                         Zhixiang%Yan%NULL%1,                         Xiaofeng%Li%NULL%2,                         Xiaofeng%Li%NULL%0,                         Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                         Hui%Li%NULL%1,                         Xiao-Xia%Lu%NULL%1,                         Han%Xiao%NULL%1,                         Jie%Ren%NULL%1,                         Fu-Rong%Zhang%792523496@qq.com%1,                         Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                         Xufang%Li%NULL%1,                         Bing%Zhu%NULL%1,                         Huiying%Liang%NULL%1,                         Chunxiao%Fang%NULL%1,                         Yu%Gong%NULL%1,                         Qiaozhi%Guo%NULL%1,                         Xin%Sun%NULL%1,                         Danyang%Zhao%NULL%1,                         Jun%Shen%NULL%1,                         Huayan%Zhang%NULL%1,                         Hongsheng%Liu%NULL%2,                         Hongsheng%Liu%NULL%0,                         Huimin%Xia%huiminxia@hotmail.com%1,                         Jinling%Tang%jltang@cuhk.edu.hk%1,                         Kang%Zhang%kang.zhang@gmail.com%1,                         Sitang%Gong%sitangg@126.com%2,                         Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                         Wei%Ni%NULL%1,                         Qin%Wu%NULL%1,                         Wenjie%Li%NULL%1,                         Guoju%Li%NULL%1,                         Wendi%Wang%NULL%1,                         Jianning%Tong%NULL%1,                         Xiufeng%Song%NULL%1,                         Gary Wing Kin%Wong%NULL%1,                         Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                         Marta%Ferretti%NULL%2,                         Marta%Ferretti%NULL%0,                         Giulia%Sartoris%NULL%1,                         Maria Beatrice%Damasio%NULL%1,                         Isabella%Buffoni%NULL%2,                         Isabella%Buffoni%NULL%0,                         Daniela%Pirlo%NULL%1,                         Marta%Romanengo%NULL%2,                         Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                         Celine%Delestrain%NULL%1,                         Philippe%Bensaid%NULL%1,                         Audrey%Vizeneux%NULL%1,                         Philippe%Blanc%NULL%1,                         Aurélie%Garraffo%NULL%1,                         Emilie%Georget%NULL%1,                         Arnaud%Chalvon%NULL%1,                         Nathalie%Garrec%NULL%1,                         Yacine%Laoudi%NULL%1,                         Emmanuelle%Varon%NULL%1,                         Sébastien%Rouget%NULL%1,                         Alexandre%Pupin%NULL%1,                         Khaled%Abdel Aal%NULL%1,                         David%Toulorge%NULL%1,                         Sarah%Ducrocq%NULL%1,                         Catherine%Barrey%NULL%1,                         Letitia%Pantalone%NULL%1,                         Blandine%Robert%NULL%1,                         Lydie%Joly-Sanchez%NULL%1,                         Caroline%Thach%NULL%2,                         Caroline%Thach%NULL%0,                         Caroline%Masserot-Lureau%NULL%1,                         Jamilé%Chahine%NULL%1,                         Veronica%Risso Garcia-Roudaut%NULL%1,                         Jonathan%Rozental%NULL%1,                         Sylvie%Nathanson%NULL%1,                         Mohamed%Khaled%NULL%1,                         Alexis%Mandelcwajg%NULL%1,                         Nadia%Demayer%NULL%1,                         Stéphanie%Muller%NULL%1,                         Mustapha%Mazerghane%NULL%1,                         Ralph%Epaud%NULL%1,                         Béatrice%Pellegrino%NULL%2,                         Béatrice%Pellegrino%NULL%0,                         Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                         Zi‐Ping%Miao%NULL%1,                         Ji‐Shan%Zheng%NULL%2,                         Ji‐Shan%Zheng%NULL%0,                         Qian%Huang%NULL%1,                         Qing‐Feng%Sun%NULL%1,                         Hong‐Ping%Lu%NULL%1,                         Fei‐Fei%Su%NULL%1,                         Wei‐Hong%Wang%NULL%1,                         Lie‐Ping%Huang%NULL%1,                         Da‐Qing%Chen%NULL%1,                         Zhi‐Wei%Xu%NULL%1,                         Le‐Dan%Ji%NULL%1,                         Hong‐Ping%Zhang%NULL%1,                         Xiao‐Wei%Yang%NULL%1,                         Ming‐Hui%Li%NULL%1,                         Yue‐Yan%Mao%NULL%1,                         Man‐Zhen%Ying%NULL%1,                         Sheng%Ye%NULL%1,                         Qiang%Shu%shuqiang@zju.edu.cn%1,                         En‐Fu%Chen%enfchen@cdc.zj.cn%2,                         En‐Fu%Chen%enfchen@cdc.zj.cn%0,                         Jian‐Feng%Liang%NULL%1,                         Wei%Wang%NULL%1,                         Zhi‐Min%Chen%NULL%1,                         Wei%Li%NULL%1,                         Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                         Irene%Martín-Espín%NULL%1,                         Teresa%del Rosal%NULL%1,                         Marta%Bueno-Barriocanal%NULL%2,                         Marta%Bueno-Barriocanal%NULL%0,                         Marta%Plata-Gallardo%NULL%1,                         José Antonio%Ruiz-Domínguez%NULL%1,                         Rosario%López-López%NULL%2,                         Rosario%López-López%NULL%0,                         Miguel Ángel%Molina-Gutiérrez%NULL%1,                         Patricia%Bote-Gascón%NULL%2,                         Patricia%Bote-Gascón%NULL%0,                         Isabel%González-Bertolín%NULL%1,                         Paula%García-Sánchez%NULL%2,                         Paula%García-Sánchez%NULL%0,                         Julia%Martín-Sánchez%NULL%1,                         Begoña%de Miguel-Lavisier%NULL%1,                         Talía%Sainz%NULL%1,                         Fernando%Baquero-Artigao%NULL%1,                         Ana%Méndez-Echevarría%NULL%1,                         Cristina%Calvo%NULL%2,                         Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                         Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                         Federico%Marchetti%federico.marchetti@auslromagna.it%1,                         Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                         Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                         Marta%Romanengo%marta.romanengo@gmail.com%0,                         Enrico%Felici%enrico.felici@ospedale.al.it%1,                         Antonio%Urbino%afurbino@icloud.com%1,                         Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                         Lucio%Verdoni%lverdoni@asst-pg23.it%1,                         Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                         Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                         Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                         Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                         Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                         Marco%Binotti%marco.binotti@med.uniupo.it%1,                         Paolo%Biban%paolo.biban@aovr.veneto.it%1,                         Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                         Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                         Flavia%Nicoloso%flavianicoloso@gmail.com%1,                         Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                         Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                         Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                         Massimo%Chiossi%max.chiossi@gmail.com%1,                         Rino%Agostiniani%rinoagostiniani@gmail.com%1,                         Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                         Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                         Marcello%Lanari%marcello.lanari@unibo.it%1,                         Serena%Arrigo%arrigoserena@gmail.com%1,                         Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                         Matteo%Lenge%matteo.lenge@meyer.it%1,                         Stefano%Masi%stefano.masi@meyer.it%1,                         Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                         Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                         NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%2,                          Jianbo%Shao%xzhuge27@163.com%2,                          Yu%Guo%NULL%4,                          Yu%Guo%NULL%0,                          Xuehua%Peng%NULL%4,                          Xuehua%Peng%NULL%0,                          Zhen%Li%NULL%2,                          Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0,                          Jianbo%Shao%xzhuge27@163.com%0,                          Yu%Guo%NULL%0,                          Yu%Guo%NULL%0,                          Xuehua%Peng%NULL%0,                          Xuehua%Peng%NULL%0,                          Zhen%Li%NULL%0,                          Daoyu%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%1,                          Rose S%Penfold%NULL%1,                          Jordi%Merino%NULL%1,                          Carole H%Sudre%NULL%1,                          Erika%Molteni%NULL%1,                          Sarah%Berry%NULL%1,                          Liane S%Canas%NULL%1,                          Mark S%Graham%NULL%1,                          Kerstin%Klaser%NULL%1,                          Marc%Modat%NULL%1,                          Benjamin%Murray%NULL%1,                          Eric%Kerfoot%NULL%1,                          Liyuan%Chen%NULL%1,                          Jie%Deng%NULL%1,                          Marc F%Österdahl%NULL%1,                          Nathan J%Cheetham%NULL%1,                          David A%Drew%NULL%1,                          Long H%Nguyen%NULL%1,                          Joan Capdevila%Pujol%NULL%1,                          Christina%Hu%NULL%1,                          Somesh%Selvachandran%NULL%1,                          Lorenzo%Polidori%NULL%1,                          Anna%May%NULL%1,                          Jonathan%Wolf%NULL%1,                          Andrew T%Chan%NULL%1,                          Alexander%Hammers%NULL%1,                          Emma L%Duncan%NULL%1,                          Tim D%Spector%NULL%1,                          Sebastien%Ourselin%NULL%1,                          Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%1,                          Wei%Guo%NULL%1,                          Ting%Guo%NULL%1,                          Jinhua%Li%NULL%1,                          Wenlong%He%NULL%1,                          Shanshan%Ni%NULL%1,                          Xiaoli%Ouyang%NULL%1,                          Jiyang%Liu%NULL%1,                          Yuanlin%Xie%NULL%1,                          Xin%Tan%NULL%1,                          Zhiguo%Zhou%13807311490@163.com%1,                          Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%1,                          Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%1,                          Xiayang%Jiang%NULL%1,                          Zhenling%Zhang%NULL%1,                          Siwen%Huang%NULL%1,                          Zhenyi%Zhang%NULL%1,                          Zhaoxiong%Fang%NULL%1,                          Zhiqiang%Gu%NULL%1,                          Liangqing%Gao%NULL%1,                          Honggang%Shi%NULL%1,                          Lei%Mai%NULL%1,                          Yuan%Liu%NULL%1,                          Xianqi%Lin%NULL%1,                          Renxu%Lai%NULL%1,                          Zhixiang%Yan%NULL%1,                          Xiaofeng%Li%NULL%2,                          Xiaofeng%Li%NULL%0,                          Hong%Shan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                          Hui%Li%NULL%1,                          Xiao-Xia%Lu%NULL%1,                          Han%Xiao%NULL%1,                          Jie%Ren%NULL%1,                          Fu-Rong%Zhang%792523496@qq.com%1,                          Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%1,                          Xufang%Li%NULL%1,                          Bing%Zhu%NULL%1,                          Huiying%Liang%NULL%1,                          Chunxiao%Fang%NULL%1,                          Yu%Gong%NULL%1,                          Qiaozhi%Guo%NULL%1,                          Xin%Sun%NULL%1,                          Danyang%Zhao%NULL%1,                          Jun%Shen%NULL%1,                          Huayan%Zhang%NULL%1,                          Hongsheng%Liu%NULL%2,                          Hongsheng%Liu%NULL%0,                          Huimin%Xia%huiminxia@hotmail.com%1,                          Jinling%Tang%jltang@cuhk.edu.hk%1,                          Kang%Zhang%kang.zhang@gmail.com%1,                          Sitang%Gong%sitangg@126.com%2,                          Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%1,                          Wei%Ni%NULL%1,                          Qin%Wu%NULL%1,                          Wenjie%Li%NULL%1,                          Guoju%Li%NULL%1,                          Wendi%Wang%NULL%1,                          Jianning%Tong%NULL%1,                          Xiufeng%Song%NULL%1,                          Gary Wing Kin%Wong%NULL%1,                          Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%1,                          Marta%Ferretti%NULL%2,                          Marta%Ferretti%NULL%0,                          Giulia%Sartoris%NULL%1,                          Maria Beatrice%Damasio%NULL%1,                          Isabella%Buffoni%NULL%2,                          Isabella%Buffoni%NULL%0,                          Daniela%Pirlo%NULL%1,                          Marta%Romanengo%NULL%2,                          Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%1,                          Celine%Delestrain%NULL%1,                          Philippe%Bensaid%NULL%1,                          Audrey%Vizeneux%NULL%1,                          Philippe%Blanc%NULL%1,                          Aurélie%Garraffo%NULL%1,                          Emilie%Georget%NULL%1,                          Arnaud%Chalvon%NULL%1,                          Nathalie%Garrec%NULL%1,                          Yacine%Laoudi%NULL%1,                          Emmanuelle%Varon%NULL%1,                          Sébastien%Rouget%NULL%1,                          Alexandre%Pupin%NULL%1,                          Khaled%Abdel Aal%NULL%1,                          David%Toulorge%NULL%1,                          Sarah%Ducrocq%NULL%1,                          Catherine%Barrey%NULL%1,                          Letitia%Pantalone%NULL%1,                          Blandine%Robert%NULL%1,                          Lydie%Joly-Sanchez%NULL%1,                          Caroline%Thach%NULL%2,                          Caroline%Thach%NULL%0,                          Caroline%Masserot-Lureau%NULL%1,                          Jamilé%Chahine%NULL%1,                          Veronica%Risso Garcia-Roudaut%NULL%1,                          Jonathan%Rozental%NULL%1,                          Sylvie%Nathanson%NULL%1,                          Mohamed%Khaled%NULL%1,                          Alexis%Mandelcwajg%NULL%1,                          Nadia%Demayer%NULL%1,                          Stéphanie%Muller%NULL%1,                          Mustapha%Mazerghane%NULL%1,                          Ralph%Epaud%NULL%1,                          Béatrice%Pellegrino%NULL%2,                          Béatrice%Pellegrino%NULL%0,                          Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%1,                          Zi‐Ping%Miao%NULL%1,                          Ji‐Shan%Zheng%NULL%2,                          Ji‐Shan%Zheng%NULL%0,                          Qian%Huang%NULL%1,                          Qing‐Feng%Sun%NULL%1,                          Hong‐Ping%Lu%NULL%1,                          Fei‐Fei%Su%NULL%1,                          Wei‐Hong%Wang%NULL%1,                          Lie‐Ping%Huang%NULL%1,                          Da‐Qing%Chen%NULL%1,                          Zhi‐Wei%Xu%NULL%1,                          Le‐Dan%Ji%NULL%1,                          Hong‐Ping%Zhang%NULL%1,                          Xiao‐Wei%Yang%NULL%1,                          Ming‐Hui%Li%NULL%1,                          Yue‐Yan%Mao%NULL%1,                          Man‐Zhen%Ying%NULL%1,                          Sheng%Ye%NULL%1,                          Qiang%Shu%shuqiang@zju.edu.cn%1,                          En‐Fu%Chen%enfchen@cdc.zj.cn%2,                          En‐Fu%Chen%enfchen@cdc.zj.cn%0,                          Jian‐Feng%Liang%NULL%1,                          Wei%Wang%NULL%1,                          Zhi‐Min%Chen%NULL%1,                          Wei%Li%NULL%1,                          Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%1,                          Irene%Martín-Espín%NULL%1,                          Teresa%del Rosal%NULL%1,                          Marta%Bueno-Barriocanal%NULL%2,                          Marta%Bueno-Barriocanal%NULL%0,                          Marta%Plata-Gallardo%NULL%1,                          José Antonio%Ruiz-Domínguez%NULL%1,                          Rosario%López-López%NULL%2,                          Rosario%López-López%NULL%0,                          Miguel Ángel%Molina-Gutiérrez%NULL%1,                          Patricia%Bote-Gascón%NULL%2,                          Patricia%Bote-Gascón%NULL%0,                          Isabel%González-Bertolín%NULL%1,                          Paula%García-Sánchez%NULL%2,                          Paula%García-Sánchez%NULL%0,                          Julia%Martín-Sánchez%NULL%1,                          Begoña%de Miguel-Lavisier%NULL%1,                          Talía%Sainz%NULL%1,                          Fernando%Baquero-Artigao%NULL%1,                          Ana%Méndez-Echevarría%NULL%1,                          Cristina%Calvo%NULL%2,                          Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%1,                          Anna Maria%Magistà%annamaria.magista@auslromagna.it%1,                          Federico%Marchetti%federico.marchetti@auslromagna.it%1,                          Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1,                          Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1,                          Marta%Romanengo%marta.romanengo@gmail.com%0,                          Enrico%Felici%enrico.felici@ospedale.al.it%1,                          Antonio%Urbino%afurbino@icloud.com%1,                          Liviana%Da Dalt%liviana.dadalt@unipd.it%1,                          Lucio%Verdoni%lverdoni@asst-pg23.it%1,                          Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1,                          Benedetta%Covi%benedetta.covi@burlo.trieste.it%1,                          Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1,                          Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1,                          Anna Maria%Musolino%annamaria.musolino@opbg.net%1,                          Marco%Binotti%marco.binotti@med.uniupo.it%1,                          Paolo%Biban%paolo.biban@aovr.veneto.it%1,                          Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1,                          Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1,                          Flavia%Nicoloso%flavianicoloso@gmail.com%1,                          Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1,                          Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1,                          Danilo%Buonsenso%danilobuonsenso@gmail.com%1,                          Massimo%Chiossi%max.chiossi@gmail.com%1,                          Rino%Agostiniani%rinoagostiniani@gmail.com%1,                          Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1,                          Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1,                          Marcello%Lanari%marcello.lanari@unibo.it%1,                          Serena%Arrigo%arrigoserena@gmail.com%1,                          Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1,                          Matteo%Lenge%matteo.lenge@meyer.it%1,                          Stefano%Masi%stefano.masi@meyer.it%1,                          Egidio%Barbi%egidio.barbi@burlo.trieste.it%1,                          Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1,                          NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Xia%NULL%0, Jianbo%Shao%xzhuge27@163.com%0, Yu%Guo%NULL%4, Yu%Guo%NULL%0, Xuehua%Peng%NULL%0, Xuehua%Peng%NULL%0, Zhen%Li%NULL%0, Daoyu%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Michela%Antonelli%NULL%0, Rose S%Penfold%NULL%1, Jordi%Merino%NULL%1, Carole H%Sudre%NULL%1, Erika%Molteni%NULL%1, Sarah%Berry%NULL%1, Liane S%Canas%NULL%1, Mark S%Graham%NULL%1, Kerstin%Klaser%NULL%1, Marc%Modat%NULL%1, Benjamin%Murray%NULL%1, Eric%Kerfoot%NULL%1, Liyuan%Chen%NULL%1, Jie%Deng%NULL%1, Marc F%Österdahl%NULL%1, Nathan J%Cheetham%NULL%1, David A%Drew%NULL%1, Long H%Nguyen%NULL%1, Joan Capdevila%Pujol%NULL%1, Christina%Hu%NULL%1, Somesh%Selvachandran%NULL%1, Lorenzo%Polidori%NULL%1, Anna%May%NULL%1, Jonathan%Wolf%NULL%1, Andrew T%Chan%NULL%1, Alexander%Hammers%NULL%1, Emma L%Duncan%NULL%1, Tim D%Spector%NULL%1, Sebastien%Ourselin%NULL%1, Claire J%Steves%claire.j.steves@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Science ;, The Lancet Pub. Group</t>
+  </si>
+  <si>
+    <t>[Qinxue%Shen%NULL%0, Wei%Guo%NULL%0, Ting%Guo%NULL%1, Jinhua%Li%NULL%1, Wenlong%He%NULL%1, Shanshan%Ni%NULL%1, Xiaoli%Ouyang%NULL%1, Jiyang%Liu%NULL%0, Yuanlin%Xie%NULL%0, Xin%Tan%NULL%1, Zhiguo%Zhou%13807311490@163.com%0, Hong%Peng%penghong66@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: As of 23rd February 2020, China had 77,048 patients with confirmed SARS-CoV-2 infections, and only 2. 1% of patients were under the age of 19 years.
+ Morbidity among children was much lower, with milder or absent signs and symptoms; chest CT scans showed milder symptoms, if at all, compared to adults.
+</t>
+  </si>
+  <si>
+    <t>[Lan%Zhang%NULL%0, Songming%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Lu%Lin%NULL%0, Xiayang%Jiang%NULL%1, Zhenling%Zhang%NULL%1, Siwen%Huang%NULL%1, Zhenyi%Zhang%NULL%1, Zhaoxiong%Fang%NULL%1, Zhiqiang%Gu%NULL%1, Liangqing%Gao%NULL%1, Honggang%Shi%NULL%1, Lei%Mai%NULL%1, Yuan%Liu%NULL%0, Xianqi%Lin%NULL%1, Renxu%Lai%NULL%1, Zhixiang%Yan%NULL%1, Xiaofeng%Li%NULL%0, Xiaofeng%Li%NULL%0, Hong%Shan%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0, Hui%Li%NULL%0, Xiao-Xia%Lu%NULL%0, Han%Xiao%NULL%0, Jie%Ren%NULL%0, Fu-Rong%Zhang%792523496@qq.com%0, Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;We report epidemiological and clinical investigations on ten pediatric SARS-CoV-2 infection cases confirmed by real-time reverse transcription PCR assay of SARS-CoV-2 RNA.
+ Symptoms in these cases were nonspecific and no children required respiratory support or intensive care.
+ Chest X-rays lacked definite signs of pneumonia, a defining feature of the infection in adult cases.
+ Notably, eight children persistently tested positive on rectal swabs even after nasopharyngeal testing was negative, raising the possibility of fecal–oral transmission.
+</t>
+  </si>
+  <si>
+    <t>[Yi%Xu%NULL%0, Xufang%Li%NULL%1, Bing%Zhu%NULL%1, Huiying%Liang%NULL%1, Chunxiao%Fang%NULL%1, Yu%Gong%NULL%0, Qiaozhi%Guo%NULL%1, Xin%Sun%NULL%1, Danyang%Zhao%NULL%1, Jun%Shen%NULL%1, Huayan%Zhang%NULL%1, Hongsheng%Liu%NULL%2, Hongsheng%Liu%NULL%0, Huimin%Xia%huiminxia@hotmail.com%1, Jinling%Tang%jltang@cuhk.edu.hk%1, Kang%Zhang%kang.zhang@gmail.com%1, Sitang%Gong%sitangg@126.com%2, Sitang%Gong%sitangg@126.com%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group US</t>
+  </si>
+  <si>
+    <t>[Yuhan%Xing%NULL%0, Wei%Ni%NULL%1, Qin%Wu%NULL%1, Wenjie%Li%NULL%1, Guoju%Li%NULL%1, Wendi%Wang%NULL%1, Jianning%Tong%NULL%1, Xiufeng%Song%NULL%1, Gary Wing Kin%Wong%NULL%1, Quansheng%Xing%NULL%1]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Giacomo%Brisca%giacomobrisca@gmail.com%0, Marta%Ferretti%NULL%2, Marta%Ferretti%NULL%0, Giulia%Sartoris%NULL%1, Maria Beatrice%Damasio%NULL%1, Isabella%Buffoni%NULL%2, Isabella%Buffoni%NULL%0, Daniela%Pirlo%NULL%1, Marta%Romanengo%NULL%2, Emanuela%Piccotti%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding the clinical presentation of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection and prognosis in children is a major issue.
+ Children often present mild symptoms, and some severe forms require paediatric intensive care, with in some cases a fatal prognosis.
+ Our aim was to identify the epidemiological characteristics, clinical presentation, and prognosis of children with coronavirus disease 2019 (Covid-19) hospitalized in Paris suburb hospitals.
+ In this prospective, observational, multicentre study, we included children hospitalized in paediatric departments of Paris suburb hospitals from 23 March 2020 to 10 May 2020, during the national lockdown in France with confirmed SARS-CoV-2 infection (positive RNA test on a nasopharyngeal swab) or highly suspected infection (clinical, biological, and/or radiological data features suggestive for SARS-CoV-2 infection).
+ A total of 192 children were included for confirmed (n = 157) or highly suspected (n = 35) SARS-CoV-2 infection.
+ The median age was one year old (interquartile range 0.125–11) with a sex ratio 1.3:1. Fever was recorded in 147 (76.6%) children and considered poorly tolerated in 29 (15.1%).
+ The symptoms ranged from rhinorrhoea (34.4%) and gastrointestinal (35.5%) to respiratory distress (25%).
+ Only 10 (5.2%) children had anosmia and five (2.6%) had chest pain.
+ An underlying condition was identified in almost 30% of the children in our study.
+ Overall, 24 (12.5%) children were admitted to paediatric intensive care units, 12 required mechanical ventilation, and three died.
+ For children in Paris suburbs, most cases of Covid-19 showed mild or moderate clinical expression.
+ However, one-eighth of children were admitted to paediatric intensive care units and three died.
+</t>
+  </si>
+  <si>
+    <t>[Louise%Gaborieau%NULL%0, Celine%Delestrain%NULL%1, Philippe%Bensaid%NULL%2, Audrey%Vizeneux%NULL%1, Philippe%Blanc%NULL%1, Aurélie%Garraffo%NULL%1, Emilie%Georget%NULL%1, Arnaud%Chalvon%NULL%1, Nathalie%Garrec%NULL%1, Yacine%Laoudi%NULL%1, Emmanuelle%Varon%NULL%1, Sébastien%Rouget%NULL%1, Alexandre%Pupin%NULL%1, Khaled%Abdel Aal%NULL%1, David%Toulorge%NULL%1, Sarah%Ducrocq%NULL%1, Catherine%Barrey%NULL%1, Letitia%Pantalone%NULL%1, Blandine%Robert%NULL%1, Lydie%Joly-Sanchez%NULL%1, Caroline%Thach%NULL%2, Caroline%Thach%NULL%0, Caroline%Masserot-Lureau%NULL%1, Jamilé%Chahine%NULL%1, Veronica%Risso Garcia-Roudaut%NULL%1, Jonathan%Rozental%NULL%1, Sylvie%Nathanson%NULL%1, Mohamed%Khaled%NULL%1, Alexis%Mandelcwajg%NULL%1, Nadia%Demayer%NULL%1, Stéphanie%Muller%NULL%1, Mustapha%Mazerghane%NULL%1, Ralph%Epaud%NULL%1, Béatrice%Pellegrino%NULL%2, Béatrice%Pellegrino%NULL%0, Fouad%Madhi%NULL%1]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pandemic of severe acute respiratory syndrome coronavirus‐2 (SARS‐CoV‐2) infection broke out all over the world; however, epidemiological data and viral shedding in pediatric patients are limited.
+ We conducted a retrospective, multicenter study, and followed‐up with all children from the families with SARS‐CoV‐2 infected members in Zhejiang Province, China.
+ All infections were confirmed by testing the SARS‐CoV‐2 RNA with real‐time reverse transcription PCR method, and epidemiological data between children and adults in the same families were compared.
+ Effect of antiviral therapy was evaluated observationally and fecal‐viral excretion times among groups with different antiviral regiments were compared with Kaplan‐Meier plot.
+ By 29 February 2020, 1298 cases from 883 families were confirmed with SARS‐CoV‐2 infection and 314 of which were families with children.
+ Incidence of infection in child close contacts was significantly lower than that in adult contacts (13.2% vs 21.2%).
+ The mean age of 43 pediatric cases was 8.2 years and mean incubation period was 9.1 days.
+ Forty (93.0%) were family clustering.
+ Thirty‐three children had coronavirus disease 2019 (20 pneumonia) with mild symptoms and 10 were asymptomatic.
+ Fecal SARS‐CoV‐2 RNA detection was positive in 91.4% (32/35) cases and some children had viral excretion time over 70 days.
+ Viral clearance time was not different among the groups treated with different antiviral regiments.
+ No subsequent infection was observed in family contacts of fecal‐viral‐excreting children.
+ Children have lower susceptibility of SARS‐CoV‐2 infection, longer incubation, and fecal‐viral excretion time.
+ Positive results of fecal SARS‐CoV‐2 RNA detection were not used as indication for hospitalization or quarantine.
+</t>
+  </si>
+  <si>
+    <t>[Chun‐Zhen%Hua%NULL%0, Zi‐Ping%Miao%NULL%1, Ji‐Shan%Zheng%NULL%2, Ji‐Shan%Zheng%NULL%0, Qian%Huang%NULL%1, Qing‐Feng%Sun%NULL%0, Hong‐Ping%Lu%NULL%1, Fei‐Fei%Su%NULL%1, Wei‐Hong%Wang%NULL%1, Lie‐Ping%Huang%NULL%1, Da‐Qing%Chen%NULL%1, Zhi‐Wei%Xu%NULL%1, Le‐Dan%Ji%NULL%1, Hong‐Ping%Zhang%NULL%1, Xiao‐Wei%Yang%NULL%1, Ming‐Hui%Li%NULL%1, Yue‐Yan%Mao%NULL%1, Man‐Zhen%Ying%NULL%1, Sheng%Ye%NULL%1, Qiang%Shu%shuqiang@zju.edu.cn%1, En‐Fu%Chen%enfchen@cdc.zj.cn%2, En‐Fu%Chen%enfchen@cdc.zj.cn%0, Jian‐Feng%Liang%NULL%1, Wei%Wang%NULL%0, Zhi‐Min%Chen%NULL%1, Wei%Li%NULL%0, Jun‐Fen%Fu%fjf68@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[María%de Ceano-Vivas%NULL%0, Irene%Martín-Espín%NULL%1, Teresa%del Rosal%NULL%1, Marta%Bueno-Barriocanal%NULL%2, Marta%Bueno-Barriocanal%NULL%0, Marta%Plata-Gallardo%NULL%1, José Antonio%Ruiz-Domínguez%NULL%1, Rosario%López-López%NULL%2, Rosario%López-López%NULL%0, Miguel Ángel%Molina-Gutiérrez%NULL%1, Patricia%Bote-Gascón%NULL%2, Patricia%Bote-Gascón%NULL%0, Isabel%González-Bertolín%NULL%1, Paula%García-Sánchez%NULL%2, Paula%García-Sánchez%NULL%0, Julia%Martín-Sánchez%NULL%1, Begoña%de Miguel-Lavisier%NULL%1, Talía%Sainz%NULL%1, Fernando%Baquero-Artigao%NULL%1, Ana%Méndez-Echevarría%NULL%1, Cristina%Calvo%NULL%2, Cristina%Calvo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Parri%niccolo.parri@meyer.it%0, Anna Maria%Magistà%annamaria.magista@auslromagna.it%1, Federico%Marchetti%federico.marchetti@auslromagna.it%1, Barbara%Cantoni%barbara.cantoni@policlinico.mi.it%1, Alberto%Arrighini%alberto.arrighini@asst-spedalicivili.it%1, Marta%Romanengo%marta.romanengo@gmail.com%0, Enrico%Felici%enrico.felici@ospedale.al.it%1, Antonio%Urbino%afurbino@icloud.com%1, Liviana%Da Dalt%liviana.dadalt@unipd.it%1, Lucio%Verdoni%lverdoni@asst-pg23.it%0, Benedetta%Armocida%benedetta.armocida@burlo.trieste.it%1, Benedetta%Covi%benedetta.covi@burlo.trieste.it%1, Ilaria%Mariani%ilaria.mariani@burlo.trieste.it%1, Roberta%Giacchero%Roberta.Giacchero@asst-lodi.it%1, Anna Maria%Musolino%annamaria.musolino@opbg.net%1, Marco%Binotti%marco.binotti@med.uniupo.it%1, Paolo%Biban%paolo.biban@aovr.veneto.it%1, Silvia%Fasoli%silvia.fasoli@asst-mantova.it%1, Chiara%Pilotto%chiara.pilotto@asufc.sanita.fvg.it%1, Flavia%Nicoloso%flavianicoloso@gmail.com%1, Massimiliano%Raggi%massimiali.raggi@apss.tn.it%1, Elisabetta%Miorin%elisabetta.miorin@asufc.sanita.fvg.it%1, Danilo%Buonsenso%danilobuonsenso@gmail.com%1, Massimo%Chiossi%max.chiossi@gmail.com%1, Rino%Agostiniani%rinoagostiniani@gmail.com%1, Anna%Plebani%annamaria.plebani@asst-settelaghi.it%1, Maria Antonietta%Barbieri%mantonietta.barbieri@opbg.net%1, Marcello%Lanari%marcello.lanari@unibo.it%1, Serena%Arrigo%arrigoserena@gmail.com%1, Elena%Zoia%elena.zoia@asst.fbf.sacco.it%1, Matteo%Lenge%matteo.lenge@meyer.it%1, Stefano%Masi%stefano.masi@meyer.it%1, Egidio%Barbi%egidio.barbi@burlo.trieste.it%1, Marzia%Lazzerini%marzia.lazzerini@burlo.trieste.it%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +2106,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1924,10 +2118,10 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1944,7 +2138,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1956,10 +2150,10 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1976,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1988,10 +2182,10 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2008,7 +2202,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -2020,10 +2214,10 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2034,28 +2228,28 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2069,10 +2263,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -2084,10 +2278,10 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2104,7 +2298,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -2116,10 +2310,10 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2133,10 +2327,10 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2148,10 +2342,10 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2165,10 +2359,10 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -2180,10 +2374,10 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2194,28 +2388,28 @@
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2258,22 +2452,22 @@
         <v>2020</v>
       </c>
       <c r="C13" t="s">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>460</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>443</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>444</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
@@ -2296,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
@@ -2308,10 +2502,10 @@
         <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2328,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -2340,10 +2534,10 @@
         <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2357,10 +2551,10 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -2372,10 +2566,10 @@
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2389,10 +2583,10 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -2404,10 +2598,10 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2424,7 +2618,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2436,10 +2630,10 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2456,7 +2650,7 @@
         <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -2468,10 +2662,10 @@
         <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
